--- a/Excel_Mapping/Mapping/Import_Mapping_fotos.xlsx
+++ b/Excel_Mapping/Mapping/Import_Mapping_fotos.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
   <si>
     <t xml:space="preserve">Rule type</t>
   </si>
@@ -97,6 +97,25 @@
     <t xml:space="preserve">{"relationshipType": "creator", "entityType": "photographer"}</t>
   </si>
   <si>
+    <t xml:space="preserve">ca_list_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listItemSplitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "delimiter": ";",
+ "list": "keywords",
+ "listItemType": "concept",
+ "relationshipType": "described",
+ "relationshipTypeDefault":"described",
+ "listItemTypeDefault":"concept",
+ "matchOn": ["labels"],
+ "ignoreParent": "1",
+ "dontCreate": "1"
+} </t>
+  </si>
+  <si>
     <t xml:space="preserve">Setting name</t>
   </si>
   <si>
@@ -353,9 +372,6 @@
   </si>
   <si>
     <t xml:space="preserve">Omeka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_list_items</t>
   </si>
   <si>
     <t xml:space="preserve">IPT</t>
@@ -500,9 +516,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3D3D3D"/>
-      <name val="Lucida Grande"/>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -691,8 +708,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -785,7 +802,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF3D3D3D"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -802,8 +819,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -933,11 +950,22 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
-      <c r="G7" s="4"/>
+    <row r="7" customFormat="false" ht="100.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -953,13 +981,13 @@
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -967,141 +995,141 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1109,44 +1137,44 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1211,50 +1239,50 @@
         <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>18</v>
@@ -1262,180 +1290,180 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
